--- a/DOM_Banner/output/dept_banner/Sanjay Patel_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Sanjay Patel_2023.xlsx
@@ -546,7 +546,7 @@
 "https://openalex.org/A5016194351", "https://openalex.org/A5056057427", "https://openalex.org/A5012062942", "https://openalex.org/A5007798980", "https://openalex.org/A5087981381", "https://openalex.org/A5038363316", "https://openalex.org/A5006835584", "https://openalex.org/A5023226226", "https://openalex.org/A5032191434", "https://openalex.org/A5030095688", "https://openalex.org/A5067224066", "https://openalex.org/A5021893230", "https://openalex.org/A5084167217", "https://openalex.org/A5038444881", 
 "https://openalex.org/A5049771949", "https://openalex.org/A5081796723", "https://openalex.org/A5010444377", "https://openalex.org/A5030456446", "https://openalex.org/A5070019992", "https://openalex.org/A5053535934", "https://openalex.org/A5001280168", "https://openalex.org/A5069326648", "https://openalex.org/A5077813748", "https://openalex.org/A5016707790", "https://openalex.org/A5071420068", "https://openalex.org/A5017320231", "https://openalex.org/A5042336364", "https://openalex.org/A5033710516", 
 "https://openalex.org/A5001192345", "https://openalex.org/A5089377771", "https://openalex.org/A5027443485", "https://openalex.org/A5009770000", "https://openalex.org/A5004648556", "https://openalex.org/A5030064954", "https://openalex.org/A5063852123", "https://openalex.org/A5039203052", "https://openalex.org/A5084954332", "https://openalex.org/A5045737004", "https://openalex.org/A5056266797", "https://openalex.org/A5052478065", "https://openalex.org/A5004878337"), au_display_name = c("Aram Antó", 
-"Josep M. Antó", "Fabio Balli", "Annabelle Bédard", "Jean Bousquet", "Jean Bousquet", "Luisa Brussino", "Pierre‐Régis Burgel", "Emilie Burte", "Carlos A. Camargo", "Giorgio Walter Canonica", "Tara F. Carr", "Thomas B. Casale", "Lídia Casas", "Guillaume Chassagnon", "Wienczyslawa Czarlewski", "Shyamali Dharmage", "Orianne Dumas", "João Fonseca", "Mina Gaga", "Bilun Gemicioğlu", "Sven Günther", "Stéfanie Habib", "Kohei Hasegawa", "Joachim Heinrich", "Nur Sabrina Idrose", "Bénédicte Jacquemin", 
+"Josep M. Antó", "Fabio Balli", "Annabelle Bédard", "Jean Bousquet", "Jean Bousquet", "Luisa Brussino", "Pierre–Régis Burgel", "Emilie Burte", "Carlos A. Camargo", "Giorgio Walter Canonica", "Tara F. Carr", "Thomas B. Casale", "Lídia Casas", "Guillaume Chassagnon", "Wienczyslawa Czarlewski", "Shyamali Dharmage", "Orianne Dumas", "João Fonseca", "Mina Gaga", "Bilun Gemicioğlu", "Sven Günther", "Stéfanie Habib", "Kohei Hasegawa", "Joachim Heinrich", "Nur Sabrina Idrose", "Bénédicte Jacquemin", 
 "Ludger Klimek", "Violeta Kvedarienė", "Bénédicte Leynaert", "Zhen Li", "Renaud Louis", "Clémence Martin", "Andréanne Morin", "Nicole Le Moual", "Rachel Nadif", "Hiroyuki Nagase", "Carole Ober", "Jean Pastré", "S. J. Patel", "Francesca Puggioni", "Francisco Gómez Real", "Nicolás Roche", "Joaquı́n Sastre", "Marine Savouré", "Nathan Schoettler", "Nicola Scichilone", "Bernardo Sousa‐Pinto", "Maho Suzukawa", "Laura Toivonen", "Arūnas Valiulis", "Raphaëlle Varraso", "Arzu Yorgancıoğlu", 
 "Eleptherios Zervas", "Torsten Zuberbier"), au_orcid = c("https://orcid.org/0000-0001-8180-5481", "https://orcid.org/0000-0002-4736-8529", "https://orcid.org/0000-0002-4769-5810", "https://orcid.org/0000-0002-7842-8889", "https://orcid.org/0000-0001-9226-7762", "https://orcid.org/0000-0001-9226-7762", "https://orcid.org/0000-0001-7249-7616", "https://orcid.org/0000-0003-0903-9828", "https://orcid.org/0000-0003-3341-5352", "https://orcid.org/0000-0003-4045-4050", NA, NA, "https://orcid.org/0000-0002-3149-7377", 
 NA, "https://orcid.org/0000-0003-1487-7922", NA, NA, "https://orcid.org/0000-0001-8423-2826", "https://orcid.org/0000-0002-0887-8796", "https://orcid.org/0000-0002-9949-6012", "https://orcid.org/0000-0001-5953-4881", "https://orcid.org/0000-0001-8388-6131", NA, "https://orcid.org/0000-0002-5739-7999", "https://orcid.org/0000-0002-9620-1629", "https://orcid.org/0000-0002-7079-3670", "https://orcid.org/0000-0003-1273-9892", "https://orcid.org/0000-0002-2455-0192", "https://orcid.org/0000-0002-6119-211X", 

--- a/DOM_Banner/output/dept_banner/Sanjay Patel_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Sanjay Patel_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH8"/>
+  <dimension ref="A1:AH9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1407,14 +1407,14 @@
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W149395048", "https://openalex.org/W1524552663", "https://openalex.org/W1912231050", "https://openalex.org/W1965855684", "https://openalex.org/W1967878389", "https://openalex.org/W1971910104", "https://openalex.org/W1975470702", "https://openalex.org/W1991040129", "https://openalex.org/W1996430354", "https://openalex.org/W1999847898", "https://openalex.org/W2045280766", "https://openalex.org/W2075247410", "https://openalex.org/W2082428100", "https://openalex.org/W2093127022", 
-"https://openalex.org/W2093191118", "https://openalex.org/W2130276273", "https://openalex.org/W2140363334", "https://openalex.org/W2150260015", "https://openalex.org/W2157751307", "https://openalex.org/W2160172778", "https://openalex.org/W2223777709", "https://openalex.org/W2320659285", "https://openalex.org/W2330823310", "https://openalex.org/W2432120366", "https://openalex.org/W2790072344", "https://openalex.org/W2901173776", "https://openalex.org/W2950183821", "https://openalex.org/W2987100386", 
-"https://openalex.org/W3009579572", "https://openalex.org/W3027898185", "https://openalex.org/W3120391982", "https://openalex.org/W3151650706", "https://openalex.org/W3175313553", "https://openalex.org/W3191380389", "https://openalex.org/W3203108148", "https://openalex.org/W4200466116", "https://openalex.org/W4283513283", "https://openalex.org/W4293251519", "https://openalex.org/W4309725708", "https://openalex.org/W4318315097")</t>
+          <t>c("https://openalex.org/W149395048", "https://openalex.org/W1524552663", "https://openalex.org/W1912231050", "https://openalex.org/W1965855684", "https://openalex.org/W1967878389", "https://openalex.org/W1971910104", "https://openalex.org/W1975470702", "https://openalex.org/W1991040129", "https://openalex.org/W1996430354", "https://openalex.org/W1999847898", "https://openalex.org/W2014085028", "https://openalex.org/W2045280766", "https://openalex.org/W2075247410", "https://openalex.org/W2082428100", 
+"https://openalex.org/W2093127022", "https://openalex.org/W2093191118", "https://openalex.org/W2130276273", "https://openalex.org/W2140363334", "https://openalex.org/W2150260015", "https://openalex.org/W2157751307", "https://openalex.org/W2160172778", "https://openalex.org/W2223777709", "https://openalex.org/W2320659285", "https://openalex.org/W2330823310", "https://openalex.org/W2432120366", "https://openalex.org/W2790072344", "https://openalex.org/W2901173776", "https://openalex.org/W2950183821", 
+"https://openalex.org/W2987100386", "https://openalex.org/W3009579572", "https://openalex.org/W3027898185", "https://openalex.org/W3120391982", "https://openalex.org/W3151650706", "https://openalex.org/W3175313553", "https://openalex.org/W3191380389", "https://openalex.org/W3203108148", "https://openalex.org/W4200466116", "https://openalex.org/W4283513283", "https://openalex.org/W4293251519", "https://openalex.org/W4309725708", "https://openalex.org/W4318315097")</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W1944713186", "https://openalex.org/W3120391982", "https://openalex.org/W2093127022", "https://openalex.org/W2234262312", "https://openalex.org/W2188428797", "https://openalex.org/W4206297848", "https://openalex.org/W2892015416", "https://openalex.org/W2096254583", "https://openalex.org/W4200191307", "https://openalex.org/W2345820973")</t>
+          <t>c("https://openalex.org/W4206297848", "https://openalex.org/W2234262312", "https://openalex.org/W2039788050", "https://openalex.org/W2562720103", "https://openalex.org/W4245072705", "https://openalex.org/W3128559897", "https://openalex.org/W4247516371", "https://openalex.org/W4248626785", "https://openalex.org/W2162565381", "https://openalex.org/W2064752607")</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
@@ -1770,6 +1770,178 @@
         </is>
       </c>
       <c r="AH8" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W4391533862</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>STRUCTURE OF REGULATED AGRICULTURAL MARKETS IN INDIA</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>list(au_id = "https://openalex.org/A5017320231", au_display_name = "S. J. Patel", au_orcid = "https://orcid.org/0000-0002-7079-565X", author_position = "first", au_affiliation_raw = "", institution_id = NA, institution_display_name = NA, institution_ror = NA, institution_country_code = NA, institution_type = NA, institution_lineage = NA)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>This paper explores the structure of regulated agricultural markets in contemporary India. It discusses the evolution of agricultural market regulations from the introduction of APMC Acts after the independence to the recent reforms in agricultural marketing. It critically analyses the arguments made for the deregulation of these markets. Using data from the Situational Assessment of Agricultural Households and Land and Livestock Holdings of Households in Rural India, 2019, the paper also discusses the diverse marketing channels for different crops at the national level.</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2023-01-01</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>International journal of social science and economic research</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://openalex.org/S4210219729</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>2455-8834</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.46609/ijsser.2023.v08i12.018</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>publishedVersion</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>3963</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>3973</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>bronze</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.46609/ijsser.2023.v08i12.018</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>https://api.openalex.org/works?filter=cites:W4391533862</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>c(openalex = "https://openalex.org/W4391533862", doi = "https://doi.org/10.46609/ijsser.2023.v08i12.018")</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.46609/ijsser.2023.v08i12.018</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>c("https://openalex.org/W3122389410", "https://openalex.org/W2200951064", "https://openalex.org/W2748952813", "https://openalex.org/W2355956201", "https://openalex.org/W2386195957", "https://openalex.org/W2327874825", "https://openalex.org/W2351852648", "https://openalex.org/W2613051533", "https://openalex.org/W2349774843", "https://openalex.org/W2775541961")</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
         <is>
           <t>FALSE</t>
         </is>

--- a/DOM_Banner/output/dept_banner/Sanjay Patel_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Sanjay Patel_2023.xlsx
@@ -442,7 +442,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Aram Antó, Josep M. Antó, Fabio Balli, Annabelle Bédard, Jean Bousquet, Jean Bousquet, Luisa Brussino, Pierre–Régis Burgel, Emilie Burte, Carlos A. Camargo, Giorgio Walter Canonica, Tara F. Carr, Thomas B. Casale, Lídia Casas, Guillaume Chassagnon, Wienczyslawa Czarlewski, Shyamali Dharmage, Orianne Dumas, João Fonseca, Mina Gaga, Bilun Gemicioğlu, Sven Günther, Stéfanie Habib, Kohei Hasegawa, Joachim Heinrich, Nur Sabrina Idrose, Bénédicte Jacquemin, Ludger Klimek, Violeta Kvedarienė, Bénédicte Leynaert, Zhen Li, Renaud Louis, Clémence Martin, Andréanne Morin, Nicole Le Moual, Rachel Nadif, Hiroyuki Nagase, Carole Ober, Jean Pastré, S. J. Patel, Francesca Puggioni, Francisco Gómez Real, Nicolás Roche, Joaquı́n Sastre, Marine Savouré, Nathan Schoettler, Nicola Scichilone, Bernardo Sousa‐Pinto, Maho Suzukawa, Laura Toivonen, Arūnas Valiulis, Raphaëlle Varraso, Arzu Yorgancıoğlu, Eleptherios Zervas, Torsten Zuberbier</t>
+          <t>Aram Antó, Josep M. Antó, Fabio Balli, Annabelle Bédard, Jean Bousquet, Jean Bousquet, Luisa Brussino, Pierre–Régis Burgel, Emilie Burte, Carlos A. Camargo, Giorgio Walter Canonica, Tara F. Carr, Thomas B. Casale, Lídia Casas, Guillaume Chassagnon, Wienczyslawa Czarlewski, Shyamali Dharmage, Orianne Dumas, João Fonseca, Mina Gaga, Bilun Gemicioğlu, Sven Günther, Stéfanie Habib, Kohei Hasegawa, Joachim Heinrich, Nur Sabrina Idrose, Bénédicte Jacquemin, Ludger Klimek, Violeta Kvedarienė, Bénédicte Leynaert, Zhen Li, Renaud Louis, Clémence Martin, Andréanne Morin, Nicole Le Moual, Rachel Nadif, Hiroyuki Nagase, Carole Ober, Jean Pastré, S. J. Patel, Francesca Puggioni, Francisco Gómez Real, Nicolás Roche, Joaquı́n Sastre, Marine Savouré, Nathan Schoettler, Nicola Scichilone, Bernardo Sousa‐Pinto, Maho Suzukawa, Laura Toivonen, Arũnas Valiulis, Raphaëlle Varraso, Arzu Yorgancıoğlu, Eleptherios Zervas, Torsten Zuberbier</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">

--- a/DOM_Banner/output/dept_banner/Sanjay Patel_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Sanjay Patel_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -442,42 +447,42 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Aram Antó, Josep M. Antó, Fabio Balli, Annabelle Bédard, Jean Bousquet, Jean Bousquet, Luisa Brussino, Pierre–Régis Burgel, Emilie Burte, Carlos A. Camargo, Giorgio Walter Canonica, Tara F. Carr, Thomas B. Casale, Lídia Casas, Guillaume Chassagnon, Wienczyslawa Czarlewski, Shyamali Dharmage, Orianne Dumas, João Fonseca, Mina Gaga, Bilun Gemicioğlu, Sven Günther, Stéfanie Habib, Kohei Hasegawa, Joachim Heinrich, Nur Sabrina Idrose, Bénédicte Jacquemin, Ludger Klimek, Violeta Kvedarienė, Bénédicte Leynaert, Zhen Li, Renaud Louis, Clémence Martin, Andréanne Morin, Nicole Le Moual, Rachel Nadif, Hiroyuki Nagase, Carole Ober, Jean Pastré, S. J. Patel, Francesca Puggioni, Francisco Gómez Real, Nicolás Roche, Joaquı́n Sastre, Marine Savouré, Nathan Schoettler, Nicola Scichilone, Bernardo Sousa‐Pinto, Maho Suzukawa, Laura Toivonen, Arũnas Valiulis, Raphaëlle Varraso, Arzu Yorgancıoğlu, Eleptherios Zervas, Torsten Zuberbier</t>
+          <t>Tara F. Carr, S. J. Patel</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4306179989</t>
+          <t>Department of Medicine, University of Arizona, Tucson, AZ, United States; Department of Medicine, University of Arizona, Tucson, AZ, United States</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Contributors</t>
+          <t>https://openalex.org/W4306180133</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>Eosinophilic and noneosinophilic asthma: Beyond severe asthma</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>2023-01-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Elsevier eBooks</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/b978-0-323-85419-1.00066-9</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1016/b978-0-323-85419-1.00005-0</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -487,35 +492,40 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="L2" t="inlineStr">
         <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/b978-0-323-85419-1.00066-9</t>
-        </is>
-      </c>
       <c r="P2" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/b978-0-323-85419-1.00005-0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
         <is>
           <t>book-chapter</t>
         </is>
@@ -524,162 +534,172 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Tara F. Carr, S. J. Patel</t>
+          <t>Ashvin Gauswami, Sanjay Jha, S. J. Patel, Harish Suthar, Vipulkumar Parekh, Harsur Jajda</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4306180133</t>
+          <t>ASPEE College of Horticulture and Forestry, Navsari Agricultural University; ASPEE Shakilam Biotechnology Institute, Navsari Agricultural University, Surat; ASPEE Shakilam Biotechnology Institute, Navsari Agricultural University, Surat; ASPEE College of Horticulture and Forestry, Navsari Agricultural University; ASPEE College of Horticulture and Forestry, Navsari Agricultural University; ASPEE Shakilam Biotechnology Institute, Navsari Agricultural University, Surat</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Eosinophilic and noneosinophilic asthma: Beyond severe asthma</t>
+          <t>https://openalex.org/W4316500141</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>Diazotrophic endophyte Klebsiella pneumoniae N5 from sorghum show cross-colonization and plant growth promotion in Rice</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Elsevier eBooks</t>
+          <t>2023-01-16</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Research Square (Research Square)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/b978-0-323-85419-1.00005-0</t>
+          <t>Research Square (United States)</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.21203/rs.3.rs-2462755/v1</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/b978-0-323-85419-1.00005-0</t>
-        </is>
-      </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>book-chapter</t>
+          <t>https://doi.org/10.21203/rs.3.rs-2462755/v1</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>article</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Ashvin Gauswami, Sanjay Jha, S. J. Patel, Harish Suthar, Vipulkumar Parekh, Harsur Jajda</t>
+          <t>SAWAN D RATHWA, Sudhir Chaudhary, Virendra Singh, Tanvi D. Manat, S. J. Patel</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4316500141</t>
+          <t>Navsari Agricultural University, Navsari, Gujarat 396 450 India; Navsari Agricultural University, Navsari, Gujarat 396 450 India; Navsari Agricultural University, Navsari, Gujarat 396 450 India; Navsari Agricultural University, Navsari, Gujarat 396 450 India; Navsari Agricultural University, Navsari, Gujarat 396 450 India</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Diazotrophic endophyte Klebsiella pneumoniae N5 from sorghum show cross-colonization and plant growth promotion in Rice</t>
+          <t>https://openalex.org/W4323666686</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2023-01-16</t>
+          <t>Effect of rumen protected methionine and choline supplementation on leukogram profile, oxidative stress, inflammatory and immunomodulatory responses of Surti buffaloes during transition period</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Research Square (Research Square)</t>
+          <t>2023-03-09</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Research Square (United States)</t>
+          <t>The Indian Journal of Animal Sciences</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://doi.org/10.21203/rs.3.rs-2462755/v1</t>
+          <t>Indian Council of Agricultural Research</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.56093/ijans.v93i2.111349</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>cc-by-nc-sa</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.21203/rs.3.rs-2462755/v1</t>
-        </is>
-      </c>
       <c r="P4" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.56093/ijans.v93i2.111349</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -688,80 +708,85 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SAWAN D RATHWA, Sudhir Chaudhary, Virendra Singh, Tanvi D. Manat, S. J. Patel</t>
+          <t>S. J. Patel, Musibau A. Azeez, R. Krishnamurthy</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4323666686</t>
+          <t>Uka Tarsadia University; Ladoke Akintola University of Technology; Uka Tarsadia University</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Effect of rumen protected methionine and choline supplementation on leukogram profile, oxidative stress, inflammatory and immunomodulatory responses of Surti buffaloes during transition period</t>
+          <t>https://openalex.org/W4377245473</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2023-03-09</t>
+          <t>Genetic variability and divergence studies on seed traits and L-dopa content of Mucuna pruriens (L.) DC. accessions</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>The Indian Journal of Animal Sciences</t>
+          <t>2023-05-22</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Indian Council of Agricultural Research</t>
+          <t>Research Square (Research Square)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.56093/ijans.v93i2.111349</t>
+          <t>Research Square (United States)</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>cc-by-nc-sa</t>
+          <t>https://doi.org/10.21203/rs.3.rs-2888732/v1</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>gold</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.56093/ijans.v93i2.111349</t>
-        </is>
-      </c>
       <c r="P5" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.21203/rs.3.rs-2888732/v1</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -770,80 +795,85 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>S. J. Patel, Musibau A. Azeez, R. Krishnamurthy</t>
+          <t>S. J. Patel, Sudhir Chaudhary, G. S. Puri, Virendra Singh</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4377245473</t>
+          <t xml:space="preserve">; ; ; </t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Genetic variability and divergence studies on seed traits and L-dopa content of Mucuna pruriens (L.) DC. accessions</t>
+          <t>https://openalex.org/W4386642011</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2023-05-22</t>
+          <t>Effect of Progestin based Estrus Synchronization Protocol on Estrus Parameters, Hormonal Profile and Vaginal Cytology in Surti Goats</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Research Square (Research Square)</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Research Square (United States)</t>
+          <t>The Indian Journal of Veterinary Sciences and Biotechnology</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://doi.org/10.21203/rs.3.rs-2888732/v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.48165/ijvsbt.19.1.13</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.21203/rs.3.rs-2888732/v1</t>
-        </is>
-      </c>
       <c r="P6" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.48165/ijvsbt.19.1.13</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -852,42 +882,42 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>S. J. Patel, Sudhir Chaudhary, G. S. Puri, Virendra Singh</t>
+          <t>Meera Shah, S. J. Patel, Hala Kufiashi, Andrew Kapoor</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4386642011</t>
+          <t>Department of Medicine, Faculty of Health Sciences, McMaster University, Hamilton, Canada; Department of Medicine, Faculty of Health Sciences, McMaster University, Hamilton, Canada; Department of Medicine, Faculty of Health Sciences, McMaster University, Hamilton, Canada; Department of Medicine and the Department of Infectious Diseases, Faculty of Health Sciences, McMaster University, Hamilton, Canada</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Effect of Progestin based Estrus Synchronization Protocol on Estrus Parameters, Hormonal Profile and Vaginal Cytology in Surti Goats</t>
+          <t>https://openalex.org/W4390169652</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2023-01-10</t>
+          <t>Elsberg Syndrome – Under-Recognition of HSV-2 Lumbosacral Radiculitis among Canadians</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>The Indian Journal of Veterinary Sciences and Biotechnology</t>
+          <t>2023-11-21</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Canadian Journal of General Internal Medicine</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://doi.org/10.48165/ijvsbt.19.1.13</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.22374/cjgim.v18i4.711</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -897,35 +927,40 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>bronze</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
+          <t>fr</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.48165/ijvsbt.19.1.13</t>
-        </is>
-      </c>
       <c r="P7" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.22374/cjgim.v18i4.711</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -934,80 +969,80 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Meera Shah, S. J. Patel, Hala Kufiashi, Andrew Kapoor</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W4390169652</t>
+          <t>S. J. Patel</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Elsberg Syndrome – Under-Recognition of HSV-2 Lumbosacral Radiculitis among Canadians</t>
+          <t>https://openalex.org/W4391533862</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2023-11-21</t>
+          <t>STRUCTURE OF REGULATED AGRICULTURAL MARKETS IN INDIA</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Canadian Journal of General Internal Medicine</t>
+          <t>2023-01-01</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>International journal of social science and economic research</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://doi.org/10.22374/cjgim.v18i4.711</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.46609/ijsser.2023.v08i12.018</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>fr</t>
-        </is>
-      </c>
       <c r="L8" t="inlineStr">
         <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.22374/cjgim.v18i4.711</t>
-        </is>
-      </c>
       <c r="P8" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.46609/ijsser.2023.v08i12.018</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1016,82 +1051,87 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>S. J. Patel</t>
+          <t>Aram Antó, Josep M. Antó, Fabio Balli, Annabelle Bédard, Jean Bousquet, Jean Bousquet, Luisa Brussino, Pierre‐Régis Burgel, Emilie Burte, Carlos A. Camargo, Giorgio Walter Canonica, Tara F. Carr, Thomas B. Casale, Lídia Casas, Guillaume Chassagnon, Wienczyslawa Czarlewski, Shyamali Dharmage, Orianne Dumas, João Fonseca, Mina Gaga, Bilun Gemicioğlu, Sven Günther, Stéfanie Habib, Kohei Hasegawa, Joachim Heinrich, Nur Sabrina Idrose, Bénédicte Jacquemin, Ludger Klimek, Violeta Kvedarienė, Bénédicte Leynaert, Zhen Li, Renaud Louis, Clémence Martin, Andréanne Morin, Nicole Le Moual, Rachel Nadif, Hiroyuki Nagase, Carole Ober, Jean Pastré, S. J. Patel, Francesca Puggioni, Francisco Gómez Real, Nicolás Roche, Joaquı́n Sastre, Marine Savouré, Nathan Schoettler, Nicola Scichilone, Bernardo Sousa‐Pinto, Maho Suzukawa, Laura Toivonen, Arũnas Valiulis, Raphaëlle Varraso, Arzu Yorgancıoğlu, Eleptherios Zervas, Torsten Zuberbier</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4391533862</t>
+          <t xml:space="preserve">MASK-air, Montpellier, France; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>STRUCTURE OF REGULATED AGRICULTURAL MARKETS IN INDIA</t>
+          <t>https://openalex.org/W4306179989</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>Contributors</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>2023-01-01</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>International journal of social science and economic research</t>
-        </is>
-      </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Elsevier eBooks</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://doi.org/10.46609/ijsser.2023.v08i12.018</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1016/b978-0-323-85419-1.00066-9</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.46609/ijsser.2023.v08i12.018</t>
-        </is>
-      </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>article</t>
+          <t>https://doi.org/10.1016/b978-0-323-85419-1.00066-9</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>book-chapter</t>
         </is>
       </c>
     </row>
